--- a/podatki/gasilci_tabele_za_uvoz.xlsx
+++ b/podatki/gasilci_tabele_za_uvoz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7694fcc017e2651/Documents/FMF/3. letnik/opb/gasilci/opb_gasilski_pomocnik/podatki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{47689237-EBD1-42BF-A5B5-F64DC00045F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F143608-6609-4780-B2CD-97BD143618C1}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{47689237-EBD1-42BF-A5B5-F64DC00045F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFFF9372-0982-44E4-8CE7-DC76D32B36AF}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="0" windowWidth="8980" windowHeight="10200" firstSheet="3" activeTab="6" xr2:uid="{6EBA06E7-074E-440F-BD57-5032FB976EB1}"/>
+    <workbookView xWindow="10100" yWindow="1520" windowWidth="8980" windowHeight="7360" firstSheet="1" activeTab="1" xr2:uid="{6EBA06E7-074E-440F-BD57-5032FB976EB1}"/>
   </bookViews>
   <sheets>
     <sheet name="cini" sheetId="1" r:id="rId1"/>
@@ -441,9 +441,6 @@
     <t>cin</t>
   </si>
   <si>
-    <t>funkcija</t>
-  </si>
-  <si>
     <t>naziv_tecaja</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>naziv</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB8F424-6C61-436A-A6E6-6C5898ECE550}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1095,7 +1097,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -1159,7 +1161,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1303,10 +1305,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1641,7 +1643,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1691,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1738,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F59569-5C68-4E57-BCD6-07C8C1EB5C72}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1746,87 +1748,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/podatki/gasilci_tabele_za_uvoz.xlsx
+++ b/podatki/gasilci_tabele_za_uvoz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7694fcc017e2651/Documents/FMF/3. letnik/opb/gasilci/opb_gasilski_pomocnik/podatki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{47689237-EBD1-42BF-A5B5-F64DC00045F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFFF9372-0982-44E4-8CE7-DC76D32B36AF}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{47689237-EBD1-42BF-A5B5-F64DC00045F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18345503-8821-4FE4-B6D3-D3C50BE178F7}"/>
   <bookViews>
-    <workbookView xWindow="10100" yWindow="1520" windowWidth="8980" windowHeight="7360" firstSheet="1" activeTab="1" xr2:uid="{6EBA06E7-074E-440F-BD57-5032FB976EB1}"/>
+    <workbookView xWindow="10100" yWindow="1520" windowWidth="8980" windowHeight="7360" firstSheet="1" activeTab="3" xr2:uid="{6EBA06E7-074E-440F-BD57-5032FB976EB1}"/>
   </bookViews>
   <sheets>
     <sheet name="cini" sheetId="1" r:id="rId1"/>
@@ -444,9 +444,6 @@
     <t>naziv_tecaja</t>
   </si>
   <si>
-    <t>id_vozilo</t>
-  </si>
-  <si>
     <t>tip_vozila</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
   </si>
   <si>
     <t>naziv</t>
+  </si>
+  <si>
+    <t>opis_tipa</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB8F424-6C61-436A-A6E6-6C5898ECE550}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1097,7 +1097,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -1294,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291AD3B2-9B9D-4C72-8938-2787E4BC61E4}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1308,7 +1308,7 @@
         <v>137</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1643,7 +1643,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1693,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1748,87 +1748,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
